--- a/database/insert文/アンケート.xlsx
+++ b/database/insert文/アンケート.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INSERT INTO ankeeto VALUES(</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -54,10 +50,6 @@
   </si>
   <si>
     <t>"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SQL2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -72,19 +64,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2018/11/12/9:51</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2018/11/12/9:51</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSfHbVtPPV8rJ4v9-F3VOQdem_lMIgOa0uM0O7YZ2vwxN0zzgA/viewform?usp=pp_url&amp;entry.877086558=%E3%81%84%E3%81%84%E3%81%88%E3%80%81%E5%8F%82%E5%8A%A0%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%9B%E3%82%93&amp;entry.1498135098=%E9%AB%98%E6%A9%8B%E7%A7%80%E7%91%9B&amp;entry.1424661284=%E5%8F%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントの出欠確認</t>
+    <rPh sb="5" eb="7">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -438,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -450,66 +455,68 @@
     <col min="2" max="2" width="3.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE(A2,B2,$I$1,$J$1,C2,$J$1,$I$1,$J$1,D2,$J$1,$I$1,$J$1,E2,$J$1,$I$1,$J$1,F2,$J$1,G2)</f>
-        <v>INSERT INTO ankeeto VALUES(0,"aaaaa","aaa","2018/11/12/9:51","2018/11/12/9:51");</v>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="str">
+        <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,$D$1,C3,$D$1,$C$1,$D$1,D3,$D$1,$C$1,$D$1,E3,$D$1,$C$1,$D$1,F3,$D$1,$B$1)</f>
+        <v>INSERT INTO ankeeto VALUES(null,1,"イベントの出欠確認","https://docs.google.com/forms/d/e/1FAIpQLSfHbVtPPV8rJ4v9-F3VOQdem_lMIgOa0uM0O7YZ2vwxN0zzgA/viewform?usp=pp_url&amp;entry.877086558=%E3%81%84%E3%81%84%E3%81%88%E3%80%81%E5%8F%82%E5%8A%A0%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%9B%E3%82%93&amp;entry.1498135098=%E9%AB%98%E6%A9%8B%E7%A7%80%E7%91%9B&amp;entry.1424661284=%E5%8F%8B%E4%BA%BA","2018/11/12/9:51","2018/11/12/9:51");</v>
       </c>
     </row>
   </sheetData>
